--- a/数据整理/stocks/A股/上证主板/601799-星宇股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601799-星宇股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10404,7 +10405,6 @@
           <t>东吴行业轮动混合C</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
           <t>85.54</t>
@@ -10420,6 +10420,3820 @@
       </c>
       <c r="H119" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4040</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009391</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2468</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>55.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2926</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>48.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2572</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011248</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实品质回报混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>75.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>44.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1513</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7124</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008681</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华价值成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4531</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>070032</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实优化红利混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4432</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000696</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富环保行业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>43.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3781</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010242</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1776</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009705</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0742</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160127</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0029</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7925</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7406</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011186</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信达澳银至诚精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7187</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008958</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实回报精选股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7162</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006266</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6030</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011169</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信臻选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>47.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5759</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5451</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005268</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华优势企业股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4977</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>610005</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信达澳银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4609</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009392</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4556</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010243</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>30.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4453</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>070018</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实回报混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>72.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4404</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4106</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160611</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华优质治理混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3927</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3601</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009988</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>信达澳银蓝筹精选股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3504</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>530006</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信核心精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>70.98</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3052</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2905</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2762</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011392</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安兴鑫回报一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>72.40</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2714</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519668</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银河竞争优势成长混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2678</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2418</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2417</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2283</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.87</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2174</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2050</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005596</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.78</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1963</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1870</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>27.73</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>27.73</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>24.10</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>24.10</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006836</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>永赢惠泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>48.33</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1435</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>30.89</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006269</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>97.51</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>61.37</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005259</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>建信龙头企业股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001157</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国联安睿祺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009448</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>75.79</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>168104</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>九泰锐丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005597</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>80.78</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>007678</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>61.37</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>530019</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>建信社会责任混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001781</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>建信现代服务业股票</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005088</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>37.61</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>004534</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇添富年年益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009449</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>004451</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>汇添富年年丰定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>26.73</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>004452</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>汇添富年年丰定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>26.73</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007679</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>004535</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>汇添富年年益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011084</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005089</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>37.61</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011085</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>168111</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>九泰锐丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601799-星宇股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601799-星宇股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14239,4 +14240,3100 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>155.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.6911</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>900011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>140.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.3683</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009704</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1230</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>900099</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>100.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.1144</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>67.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6996</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>54.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2040</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>45.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0669</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009391</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>62.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8054</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011169</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信臻选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>40.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>65.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7492</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>550015</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>54.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6355</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>37.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4983</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4571</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>39.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3505</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>070032</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实优化红利混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3380</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>26.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1886</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1785</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>900089</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>35.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.1156</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>910028</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7619</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6907</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009705</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6556</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6316</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008958</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实回报精选股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5738</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4370</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160127</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4217</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4153</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>070018</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实回报混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>69.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3530</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011626</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实匠心回报混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>61.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3373</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009392</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2731</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2665</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012243</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2630</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>530006</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信核心精选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>71.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2592</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2002</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519668</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银河竞争优势成长混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1992</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>550016</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009913</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1819</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>26.10</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>26.10</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1644</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1583</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005596</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>74.60</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001157</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国联安睿祺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005597</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>74.60</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011627</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉实匠心回报混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>61.41</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002789</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005088</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>76.10</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>516870</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>银华中证800汽车与零部件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>96.78</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005089</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002790</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601799-星宇股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601799-星宇股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17336,4 +17337,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>80</v>
+      </c>
+      <c r="D2" t="n">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>99</v>
+      </c>
+      <c r="D3" t="n">
+        <v>39.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>118</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>142</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601799-星宇股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601799-星宇股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17345,7 +17346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17356,17 +17357,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -17376,14 +17397,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>80</v>
-      </c>
-      <c r="D2" t="n">
-        <v>49.3</v>
+          <t>009704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>114.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.1636</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -17392,14 +17435,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>99</v>
-      </c>
-      <c r="D3" t="n">
-        <v>39.33</v>
+          <t>900011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>118.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7102</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -17408,14 +17473,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>118</v>
-      </c>
-      <c r="D4" t="n">
-        <v>31.72</v>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0809</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -17424,13 +17511,2849 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>900099</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6345</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>62.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5046</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>60.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.4898</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7039</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>109.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>39.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6883</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070032</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实优化红利混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2908</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2647</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1078</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9507</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>900089</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9357</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8955</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8487</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011122</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8442</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6961</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>45.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6123</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>45.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6123</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008681</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华价值成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>74.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5908</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009705</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5829</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5690</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.88</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5654</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5509</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5309</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008958</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实回报精选股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4796</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160127</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4627</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011626</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实匠心回报混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>76.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4368</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>50.51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4192</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>070018</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实回报混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>76.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3703</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2961</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012456</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2911</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2342</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2026</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001313</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519668</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银河竞争优势成长混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1955</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>26.51</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>26.51</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012457</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001231</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>银华泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011123</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>34.28</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011627</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉实匠心回报混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>76.96</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>34.28</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003062</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>68.65</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001801</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>汇添富达欣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>003063</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002165</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇添富达欣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002328</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>银华泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>75</v>
+      </c>
+      <c r="D2" t="n">
+        <v>44.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D3" t="n">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>99</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>118</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>142</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>39.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601799-星宇股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601799-星宇股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20252,7 +20253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20263,17 +20264,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -20283,14 +20304,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>75</v>
-      </c>
-      <c r="D2" t="n">
-        <v>44.89</v>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6872</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -20299,14 +20342,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>80</v>
-      </c>
-      <c r="D3" t="n">
-        <v>49.3</v>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>52.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1590</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -20315,14 +20380,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>99</v>
-      </c>
-      <c r="D4" t="n">
-        <v>39.33</v>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5180</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -20331,14 +20418,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>118</v>
-      </c>
-      <c r="D5" t="n">
-        <v>31.72</v>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4985</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -20347,13 +20456,1497 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4409</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1147</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7549</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7351</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6309</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008949</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4603</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3754</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>070018</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实回报混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2791</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1735</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1603</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519668</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银河竞争优势成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001688</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002222</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>25.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008950</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>74.24</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009538</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>太平行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002178</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>75</v>
+      </c>
+      <c r="D3" t="n">
+        <v>44.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>80</v>
+      </c>
+      <c r="D4" t="n">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>99</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>118</v>
+      </c>
+      <c r="D6" t="n">
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>142</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>39.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601799-星宇股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601799-星宇股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21829,7 +21830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21840,17 +21841,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -21860,14 +21881,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.5</v>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3193</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -21876,14 +21919,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>75</v>
-      </c>
-      <c r="D3" t="n">
-        <v>44.89</v>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0171</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -21892,14 +21957,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>80</v>
-      </c>
-      <c r="D4" t="n">
-        <v>49.3</v>
+          <t>900011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4664</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -21908,14 +21995,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>99</v>
-      </c>
-      <c r="D5" t="n">
-        <v>39.33</v>
+          <t>900099</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>63.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7581</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -21924,14 +22033,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>118</v>
-      </c>
-      <c r="D6" t="n">
-        <v>31.72</v>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>72.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6972</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -21940,13 +22071,3713 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>66.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5612</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2427</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>70.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1496</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1288</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0696</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0237</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>36.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9644</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>070032</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实优化红利混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8886</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8040</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7963</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7300</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>900089</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6099</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008949</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6039</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5982</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008681</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华价值成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>64.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4961</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4776</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4771</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4663</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011626</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实匠心回报混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2923</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2777</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>070018</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实回报混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2631</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2290</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>900013</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2131</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1707</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001197</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长盛转型升级主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.68</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013630</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实均衡臻选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>31.11</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>31.11</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519668</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银河竞争优势成长混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1029</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>78.07</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>31.20</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014339</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长江智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001688</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>26.28</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002222</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>27.08</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>26.93</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007063</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长盛研发回报混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>81.88</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>33.31</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008950</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>43.96</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000567</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发聚祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002156</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>33.67</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010914</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长盛成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>56.79</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013426</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>33.31</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011627</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>嘉实匠心回报混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>43.96</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>31.20</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>013631</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>嘉实均衡臻选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005088</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000214</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>广发成长优选混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>72.66</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001231</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>银华泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>20.84</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>003062</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>002157</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>33.67</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>014340</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长江智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>003063</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>900133</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010915</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长盛成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012616</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>嘉实优化红利混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>015638</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005089</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002328</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>银华泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>20.84</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002178</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>26.28</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>012716</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>015196</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>99</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>75</v>
+      </c>
+      <c r="D4" t="n">
+        <v>44.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>80</v>
+      </c>
+      <c r="D5" t="n">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>99</v>
+      </c>
+      <c r="D6" t="n">
+        <v>39.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>118</v>
+      </c>
+      <c r="D7" t="n">
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>142</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>39.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601799-星宇股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601799-星宇股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D2" t="n">
-        <v>32.14</v>
+        <v>28.39</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="D3" t="n">
-        <v>15.5</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>44.89</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D5" t="n">
-        <v>49.3</v>
+        <v>44.89</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D6" t="n">
-        <v>39.33</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="D7" t="n">
-        <v>31.72</v>
+        <v>39.33</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>118</v>
+      </c>
+      <c r="D8" t="n">
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>142</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>39.36</v>
       </c>
     </row>
@@ -600,6 +617,4010 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7888</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4343</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>57.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2252</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>52.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>35.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8575</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011248</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实品质回报混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>45.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5318</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0266</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015182</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合D</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9116</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8992</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010112</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8665</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8580</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8356</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7744</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001184</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7683</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7387</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6645</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6622</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6502</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6045</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008949</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5603</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008681</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华价值成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>59.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4417</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012434</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华多元回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4330</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4244</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3292</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3164</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2784</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>26.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2498</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011626</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实匠心回报混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2474</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>070018</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实回报混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>73.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2345</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>900013</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2218</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1941</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1847</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010113</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1541</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>75.08</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011470</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东吴新产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.57</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.57</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>28.98</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>28.98</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519668</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>银河竞争优势成长混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001688</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002222</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>26.64</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014339</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长江智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011196</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013439</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实产业优势混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008950</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014839</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>兴银碳中和主题混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>014838</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>兴银碳中和主题混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002307</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>银华多元视野灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014513</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>金鹰远见优选混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>64.89</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014560</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014561</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012320</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005251</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>银华多元动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008136</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>38.61</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008110</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>38.61</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>014514</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>金鹰远见优选混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011627</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>嘉实匠心回报混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012319</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>77.41</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>210007</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>015181</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>50.05</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002839</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华夏新锦程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>44.91</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001231</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>银华泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011197</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>015078</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>77.41</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>013440</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>嘉实产业优势混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>014340</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>长江智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>900133</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>003063</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>003062</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>015197</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票D</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>64.89</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>015668</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>015196</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>002328</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>银华泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>002196</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>002178</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>016594</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>35.21</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>002838</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华夏新锦程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>44.91</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4413,7 +8434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5989,7 +10010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8895,7 +12916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11991,7 +16012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15805,7 +19826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20338,7 +24359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
